--- a/Documents/Database/Default Data.xlsx
+++ b/Documents/Database/Default Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="4575" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -333,23 +333,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -367,10 +386,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,7 +417,7 @@
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="status_type"/>
     <tableColumn id="4" name="name"/>
-    <tableColumn id="5" name="seq_num" dataDxfId="6"/>
+    <tableColumn id="5" name="seq_num" dataDxfId="8"/>
     <tableColumn id="6" name="descriptoin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -401,14 +428,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B4:I17" totalsRowShown="0">
   <autoFilter ref="B4:I17"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="1"/>
+    <tableColumn id="1" name="id" dataDxfId="7"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="service_name"/>
     <tableColumn id="4" name="abbr"/>
-    <tableColumn id="5" name="is_include_tax" dataDxfId="5"/>
-    <tableColumn id="6" name="charge_amount" dataDxfId="4"/>
-    <tableColumn id="7" name="create_by" dataDxfId="3"/>
-    <tableColumn id="8" name="edit_by" dataDxfId="2"/>
+    <tableColumn id="5" name="is_include_tax" dataDxfId="6"/>
+    <tableColumn id="6" name="charge_amount" dataDxfId="5"/>
+    <tableColumn id="7" name="create_by" dataDxfId="4"/>
+    <tableColumn id="8" name="edit_by" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,7 +445,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="B4:E15" totalsRowShown="0">
   <autoFilter ref="B4:E15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="2"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="category_name"/>
     <tableColumn id="4" name="main_group"/>
@@ -742,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,27 +778,27 @@
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -952,26 +979,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1348,18 +1375,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1508,7 +1535,7 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
@@ -1561,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1577,24 +1604,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1626,318 +1653,318 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>15</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>16</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>10</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>17</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/Database/Default Data.xlsx
+++ b/Documents/Database/Default Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Tax in percentage</t>
+  </si>
+  <si>
+    <t>ROOM TRANSACTION</t>
   </si>
 </sst>
 </file>
@@ -349,6 +352,27 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -370,32 +394,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -410,14 +413,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:G11" totalsRowShown="0">
-  <autoFilter ref="B4:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:G13" totalsRowShown="0">
+  <autoFilter ref="B4:G13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="status_type"/>
     <tableColumn id="4" name="name"/>
-    <tableColumn id="5" name="seq_num" dataDxfId="8"/>
+    <tableColumn id="5" name="seq_num" dataDxfId="6"/>
     <tableColumn id="6" name="descriptoin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -428,14 +431,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B4:I17" totalsRowShown="0">
   <autoFilter ref="B4:I17"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" dataDxfId="7"/>
+    <tableColumn id="1" name="id" dataDxfId="5"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="service_name"/>
     <tableColumn id="4" name="abbr"/>
-    <tableColumn id="5" name="is_include_tax" dataDxfId="6"/>
-    <tableColumn id="6" name="charge_amount" dataDxfId="5"/>
-    <tableColumn id="7" name="create_by" dataDxfId="4"/>
-    <tableColumn id="8" name="edit_by" dataDxfId="3"/>
+    <tableColumn id="5" name="is_include_tax" dataDxfId="4"/>
+    <tableColumn id="6" name="charge_amount" dataDxfId="3"/>
+    <tableColumn id="7" name="create_by" dataDxfId="2"/>
+    <tableColumn id="8" name="edit_by" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -445,7 +448,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="B4:E15" totalsRowShown="0">
   <autoFilter ref="B4:E15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id" dataDxfId="2"/>
+    <tableColumn id="1" name="id" dataDxfId="0"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="category_name"/>
     <tableColumn id="4" name="main_group"/>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +948,40 @@
       </c>
       <c r="F11" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
